--- a/learning.xlsx
+++ b/learning.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\txy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
   <si>
     <t>task</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,6 +285,77 @@
   </si>
   <si>
     <t>https://github.com/gulpjs/vinyl-fs    https://github.com/gulpjs/vinyl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gulp-prefixer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOF的23个设计模式可以分为三类：创建型，结构型，行为型
+创建型：工厂方法，抽象工厂，单例，原型，建造者
+结构型：适配器，桥接，代理，组合，装饰，享元，外观
+行为型：职责连，命令，解释器，模板方法，迭代器，观察者，状态，策略，中介者，访问者，备忘录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base64格式图片直接放在html中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标字体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好处是可以减少请求次数；坏处是大小比图片大，维护不方便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngrok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以把本地服务暴露到外网上的，免费用户也能用，付费更好！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html5 webworker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>querySelector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postMessage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>touchstart,touchmove,touchend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动设备的触屏事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repaint和reflow，重绘和回流。页面性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zepto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jquery.base64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jquery.jsonp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -331,9 +402,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,16 +690,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="43.875" customWidth="1"/>
     <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="62.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -748,6 +823,9 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
@@ -909,6 +987,83 @@
       </c>
       <c r="C38" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="124.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/learning.xlsx
+++ b/learning.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$60</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
   <si>
     <t>task</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,10 +226,6 @@
   </si>
   <si>
     <t>yargs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供命令行交互的能力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -311,10 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>好处是可以减少请求次数；坏处是大小比图片大，维护不方便</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ngrok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -356,6 +348,122 @@
   </si>
   <si>
     <t>jquery.jsonp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flex布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css.reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源码级分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>underscore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源码级分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给file流对象上添加named属性，值是文件的名字，不包含后缀。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供命令行交互的能力。可以很方便的获取node程序的命令行参数。写自己的cli的时候很有用的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好处是可以减少请求次数；坏处是大小比图片大，维护不方便。
+方法是在网上找个能把图片转成base64的网站，把你的图片转换成base64.然后把需要放置图片地址的地方放上base64字符串就好了。
+Vue中配置webpack默认10k以下的图片使用base64方式，否则按照路径方式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习制作svg文件，并把它转换成图标字体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信个人未认证订阅号的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都走一遍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防止error崩溃管道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动端jQuery的替代方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见浏览器内核有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trident(IE),Gecko(Firefox),Webkit(Safari,Chrome,Android平台浏览器),Presto(Opera)</t>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trident</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只是简单的了解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只是简单的了解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gecko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Webkit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Presto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://meyerweb.com/eric/tools/css/reset/</t>
+  </si>
+  <si>
+    <t>pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是个大头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tdd javascript</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -363,7 +471,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,6 +484,15 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -402,12 +519,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,27 +810,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="43.875" customWidth="1"/>
+    <col min="1" max="1" width="59.875" customWidth="1"/>
     <col min="2" max="2" width="18.625" customWidth="1"/>
     <col min="3" max="3" width="62.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -741,7 +861,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
@@ -786,10 +909,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
@@ -808,10 +931,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -819,12 +942,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -865,7 +991,7 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -939,135 +1065,256 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>49</v>
       </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" t="s">
         <v>59</v>
-      </c>
-      <c r="C35" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" t="s">
         <v>63</v>
-      </c>
-      <c r="C38" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="124.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="124.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="1" t="s">
+    </row>
+    <row r="41" spans="1:3" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" t="s">
-        <v>70</v>
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="C42" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
+      <c r="C50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
+      <c r="C51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
         <v>81</v>
       </c>
+      <c r="B53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C34">
+  <autoFilter ref="A1:C60">
     <filterColumn colId="1">
       <filters blank="1"/>
     </filterColumn>

--- a/learning.xlsx
+++ b/learning.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="111">
   <si>
     <t>task</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -464,6 +464,14 @@
   </si>
   <si>
     <t>tdd javascript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ejs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板引擎，embedded javascript</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -810,10 +818,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1313,6 +1321,14 @@
         <v>108</v>
       </c>
     </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C60">
     <filterColumn colId="1">
